--- a/config_debug/act_041_yybjsj_config.xlsx
+++ b/config_debug/act_041_yybjsj_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,6 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,6 +91,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -121,6 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,6 +151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -183,6 +187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +197,39 @@
   </si>
   <si>
     <r>
-      <t>使用2000</t>
+      <t>单笔投入4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万及以上</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200～20000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投入100</t>
     </r>
     <r>
       <rPr>
@@ -210,33 +247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>及以上炮倍</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>单笔投入4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,37 +256,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>200～20000福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>投入100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万及以上</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>使用10000及以上炮倍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -299,6 +279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -313,6 +294,10 @@
   <si>
     <t>game_by|三个唐僧</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用5000及以上炮倍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -358,6 +343,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -759,7 +745,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,13 +928,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,16 +945,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,16 +965,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -999,16 +985,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,16 +1005,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1039,16 +1025,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1049,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1185,13 +1171,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,13 +1191,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,13 +1211,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1245,13 +1231,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1262,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,16 +1268,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,16 +1288,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,16 +1308,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1342,16 +1328,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
